--- a/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -112,10 +112,10 @@
     <t xml:space="preserve">({open source, freeware, commercial, unclear})</t>
   </si>
   <si>
-    <t xml:space="preserve">Publications using the software? Refers to publications that have used the software in their research.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publications about the software? Refers to publications that have only mentioned the software and have not clearly applied it.</t>
+    <t xml:space="preserve">Publications about the software? Refers to publications that have used or mentioned the software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(number or {unknown})</t>
   </si>
   <si>
     <t xml:space="preserve">Source code URL?</t>
@@ -634,15 +634,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ120"/>
+  <dimension ref="A1:AMJ119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
@@ -784,382 +784,380 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>31</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="20" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="75.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="21" customFormat="false" ht="75.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="5"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="B31" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>58</v>
+      <c r="A36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+    <row r="38" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="AMJ40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5"/>
+      <c r="AMJ39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="73.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="73.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="8" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="AMJ51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+    <row r="57" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="AMJ59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5"/>
+      <c r="AMJ58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+    <row r="62" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="AMJ64" s="0"/>
+      <c r="B63" s="5"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
@@ -1167,183 +1165,183 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>91</v>
+    <row r="67" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+    <row r="79" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="AMJ71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="8" t="s">
+    </row>
+    <row r="80" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="AMJ81" s="0"/>
+      <c r="C81" s="10"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="E82" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>107</v>
+      <c r="A83" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>87</v>
@@ -1351,15 +1349,15 @@
     </row>
     <row r="90" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>87</v>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>87</v>
@@ -1375,7 +1373,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>87</v>
@@ -1383,51 +1381,51 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+    <row r="95" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
+    <row r="96" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="AMJ97" s="0"/>
+      <c r="B96" s="5"/>
+      <c r="AMJ96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>37</v>
@@ -1435,36 +1433,36 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+    <row r="102" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="106" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="AMJ106" s="0"/>
+      <c r="B105" s="5"/>
+      <c r="AMJ105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>12</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>12</v>
@@ -1480,7 +1478,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>12</v>
@@ -1488,7 +1486,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>12</v>
@@ -1496,46 +1494,46 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
+    <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="AMJ115" s="0"/>
+      <c r="B114" s="5"/>
+      <c r="AMJ114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>12</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>12</v>
@@ -1551,7 +1549,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>12</v>
@@ -1559,17 +1557,9 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120" s="8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C83F29-219E-4DF3-AAA4-F80512573640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,207 +25,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
-  <si>
-    <t xml:space="preserve">Metrics &amp; Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible Measurement Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary Information</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
+  <si>
+    <t>Metrics &amp; Description</t>
+  </si>
+  <si>
+    <t>Possible Measurement Values</t>
+  </si>
+  <si>
+    <t>Summary Information</t>
   </si>
   <si>
     <t xml:space="preserve"> ∗ is used to indicate that a response of this type should be accompanied by explanatory text</t>
   </si>
   <si>
-    <t xml:space="preserve">Software name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(string)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(URL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affiliation (institution(s))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(string or {N/A})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of developers (all developers that have contributed at least one commit to the project) (use repo commit logs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is the project funded?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(unfunded, unclear, funded*) where * requires a string to say the source of funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popularity Measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({stars: number, forks: number, other*: number}),  * explained via a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial release date?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last commit date?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status? (alive is defined as presence of commits in the last 18 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({alive, dead, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License?</t>
+    <t>Software name?</t>
+  </si>
+  <si>
+    <t>(string)</t>
+  </si>
+  <si>
+    <t>URL?</t>
+  </si>
+  <si>
+    <t>(URL)</t>
+  </si>
+  <si>
+    <t>Affiliation (institution(s))</t>
+  </si>
+  <si>
+    <t>(string or {N/A})</t>
+  </si>
+  <si>
+    <t>Software purpose</t>
+  </si>
+  <si>
+    <t>Number of developers (all developers that have contributed at least one commit to the project) (use repo commit logs)</t>
+  </si>
+  <si>
+    <t>(number)</t>
+  </si>
+  <si>
+    <t>How is the project funded?</t>
+  </si>
+  <si>
+    <t>(unfunded, unclear, funded*) where * requires a string to say the source of funding</t>
+  </si>
+  <si>
+    <t>Popularity Measure</t>
+  </si>
+  <si>
+    <t>({stars: number, forks: number, other*: number}),  * explained via a string</t>
+  </si>
+  <si>
+    <t>Initial release date?</t>
+  </si>
+  <si>
+    <t>(date)</t>
+  </si>
+  <si>
+    <t>Last commit date?</t>
+  </si>
+  <si>
+    <t>Status? (alive is defined as presence of commits in the last 18 months)</t>
+  </si>
+  <si>
+    <t>({alive, dead, unclear})</t>
+  </si>
+  <si>
+    <t>License?</t>
   </si>
   <si>
     <t xml:space="preserve">({GNU GPL, BSD, MIT, terms of use, trial, none, unclear, other*}) * given via a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Platforms?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(set of {Windows, Linux, OS X, Android, other*}) * given via string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Category? The concept category includes software that does not have an officially released version. Public software has a released version in the public domain. Private software has a released version available to authorized users only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({concept, public, private})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development model?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({open source, freeware, commercial, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publications about the software? Refers to publications that have used or mentioned the software.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(number or {unknown})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source code URL?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({set of url, n/a, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming language(s)?</t>
+    <t>Platforms?</t>
+  </si>
+  <si>
+    <t>(set of {Windows, Linux, OS X, Android, other*}) * given via string</t>
+  </si>
+  <si>
+    <t>Software Category? The concept category includes software that does not have an officially released version. Public software has a released version in the public domain. Private software has a released version available to authorized users only.</t>
+  </si>
+  <si>
+    <t>({concept, public, private})</t>
+  </si>
+  <si>
+    <t>Development model?</t>
+  </si>
+  <si>
+    <t>({open source, freeware, commercial, unclear})</t>
+  </si>
+  <si>
+    <t>Publications about the software? Refers to publications that have used or mentioned the software.</t>
+  </si>
+  <si>
+    <t>(number or {unknown})</t>
+  </si>
+  <si>
+    <t>Source code URL?</t>
+  </si>
+  <si>
+    <t>({set of url, n/a, unclear})</t>
+  </si>
+  <si>
+    <t>Programming language(s)?</t>
   </si>
   <si>
     <t xml:space="preserve">(set of {FORTRAN, Matlab, C, C++, Java, R, Ruby, Python, Cython, BASIC, Pascal, IDL, unclear, other*}) * given via string </t>
   </si>
   <si>
-    <t xml:space="preserve">Is there evidence that performance was considered? Performance refers to either speed, storage, or throughput.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes∗, no})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional comments? (can cover any metrics you feel are missing, or any other thoughts you have)</t>
+    <t>Is there evidence that performance was considered? Performance refers to either speed, storage, or throughput.</t>
+  </si>
+  <si>
+    <t>({yes∗, no})</t>
+  </si>
+  <si>
+    <t>Additional comments? (can cover any metrics you feel are missing, or any other thoughts you have)</t>
   </si>
   <si>
     <t xml:space="preserve">Installability  (Measured via installation on a virtual machine.) </t>
   </si>
   <si>
-    <t xml:space="preserve">Are there installation instructions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the installation instructions in one place? Place referring to a single document or web page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the installation instructions linear? Linear meaning progressing  in a single series of steps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the instructions written as if the person doing the installation has none of the dependent packages installed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are compatible operating system versions listed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there something in place to automate the installation (makefile, script, installer, etc)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes∗ , no})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the software installation broke, was a descriptive error message displayed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a specified way to validate the installation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many steps were involved in the installation? (Includes manual steps like unzipping files) Specify OS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(number, OS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What OS was used for the installation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({Windows, Linux, OS X, Android, other* }) *given via string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many software packages need to be installed before or during installation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are required package versions listed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there instructions for the installation of required packages / dependencies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run uninstall, if available. Were any obvious problems caused?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes∗ , no, unavail})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall impression?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({1 .. 10})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correctness and Verifiability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any reference to the requirements specifications of the program or theory manuals?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes∗ , no, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What tools or techniques are used to build confidence of correctness?</t>
+    <t>Are there installation instructions?</t>
+  </si>
+  <si>
+    <t>({yes, no})</t>
+  </si>
+  <si>
+    <t>Are the installation instructions in one place? Place referring to a single document or web page.</t>
+  </si>
+  <si>
+    <t>({yes, no, n/a})</t>
+  </si>
+  <si>
+    <t>Are the installation instructions linear? Linear meaning progressing  in a single series of steps.</t>
+  </si>
+  <si>
+    <t>Are the instructions written as if the person doing the installation has none of the dependent packages installed?</t>
+  </si>
+  <si>
+    <t>({yes, no, unclear})</t>
+  </si>
+  <si>
+    <t>Are compatible operating system versions listed?</t>
+  </si>
+  <si>
+    <t>Is there something in place to automate the installation (makefile, script, installer, etc)?</t>
+  </si>
+  <si>
+    <t>({yes∗ , no})</t>
+  </si>
+  <si>
+    <t>If the software installation broke, was a descriptive error message displayed?</t>
+  </si>
+  <si>
+    <t>Is there a specified way to validate the installation?</t>
+  </si>
+  <si>
+    <t>How many steps were involved in the installation? (Includes manual steps like unzipping files) Specify OS.</t>
+  </si>
+  <si>
+    <t>(number, OS)</t>
+  </si>
+  <si>
+    <t>What OS was used for the installation?</t>
+  </si>
+  <si>
+    <t>({Windows, Linux, OS X, Android, other* }) *given via string</t>
+  </si>
+  <si>
+    <t>How many software packages need to be installed before or during installation?</t>
+  </si>
+  <si>
+    <t>Are required package versions listed?</t>
+  </si>
+  <si>
+    <t>Are there instructions for the installation of required packages / dependencies?</t>
+  </si>
+  <si>
+    <t>Run uninstall, if available. Were any obvious problems caused?</t>
+  </si>
+  <si>
+    <t>({yes∗ , no, unavail})</t>
+  </si>
+  <si>
+    <t>Overall impression?</t>
+  </si>
+  <si>
+    <t>({1 .. 10})</t>
+  </si>
+  <si>
+    <t>Correctness and Verifiability</t>
+  </si>
+  <si>
+    <t>Any reference to the requirements specifications of the program or theory manuals?</t>
+  </si>
+  <si>
+    <t>({yes∗ , no, unclear})</t>
+  </si>
+  <si>
+    <t>What tools or techniques are used to build confidence of correctness?</t>
   </si>
   <si>
     <r>
@@ -230,7 +235,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">({</t>
+      <t>({</t>
     </r>
     <r>
       <rPr>
@@ -239,134 +244,134 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">literate programming, automated testing, symbolic execution, model checking, assertions used in the code, Sphinx, Doxygen, Javadoc, confluence, unclear, other*}) * given via string</t>
+      <t>literate programming, automated testing, symbolic execution, model checking, assertions used in the code, Sphinx, Doxygen, Javadoc, confluence, unclear, other*}) * given via string</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">If there is a getting started tutorial?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the tutorial instructions linear?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the getting started tutorial provide an expected output?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no*, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your tutorial output match the expected output?</t>
+    <t>If there is a getting started tutorial?</t>
+  </si>
+  <si>
+    <t>Are the tutorial instructions linear?</t>
+  </si>
+  <si>
+    <t>Does the getting started tutorial provide an expected output?</t>
+  </si>
+  <si>
+    <t>({yes, no*, n/a})</t>
+  </si>
+  <si>
+    <t>Does your tutorial output match the expected output?</t>
   </si>
   <si>
     <t xml:space="preserve">Are unit tests available? </t>
   </si>
   <si>
-    <t xml:space="preserve">Is there evidence of continuous integration? (for example mentioned in documentation, Jenkins, Travis CI, Bamboo, other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes*, no, unclear})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the software “break” during installation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the software installation broke, was the installation instance recoverable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the software “break” during the initial tutorial testing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes*, no, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the tutorial testing broke, was a descriptive error message displayed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the tutorial testing broke, was the tutorial testing instance recoverable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Robustness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the software handle unexpected/unanticipated input (like data of the wrong type, empty input, missing files or links) reasonably? (a reasonable response can include an appropriate error message.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no∗ })</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For any plain text input files, if all new lines are replaced with new lines and carriage returns, will the software handle this gracefully?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes, no∗ , n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Usability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a getting started tutorial?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a user manual? ({yes, no})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are expected user characteristics documented?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the user support model? FAQ? User forum? E-mail address to direct questions? Etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the current version number?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there any information on how code is reviewed, or how to contribute?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are artifacts available? (List every type of file that is not a code file – for examples please look at the ‘Artifact Name’ column of https://gitlab.cas.mcmaster.ca/SEforSC/se4sc/-/blob/git-svn/GradStudents/Olu/ResearchProposal/Artifacts_MiningV3.xlsx)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({yes*, no, unclear}) *list via string</t>
+    <t>Is there evidence of continuous integration? (for example mentioned in documentation, Jenkins, Travis CI, Bamboo, other)</t>
+  </si>
+  <si>
+    <t>({yes*, no, unclear})</t>
+  </si>
+  <si>
+    <t>Surface Reliability</t>
+  </si>
+  <si>
+    <t>Did the software “break” during installation?</t>
+  </si>
+  <si>
+    <t>If the software installation broke, was the installation instance recoverable?</t>
+  </si>
+  <si>
+    <t>Did the software “break” during the initial tutorial testing?</t>
+  </si>
+  <si>
+    <t>({yes*, no, n/a})</t>
+  </si>
+  <si>
+    <t>If the tutorial testing broke, was a descriptive error message displayed?</t>
+  </si>
+  <si>
+    <t>If the tutorial testing broke, was the tutorial testing instance recoverable?</t>
+  </si>
+  <si>
+    <t>Surface Robustness</t>
+  </si>
+  <si>
+    <t>Does the software handle unexpected/unanticipated input (like data of the wrong type, empty input, missing files or links) reasonably? (a reasonable response can include an appropriate error message.)</t>
+  </si>
+  <si>
+    <t>({yes, no∗ })</t>
+  </si>
+  <si>
+    <t>For any plain text input files, if all new lines are replaced with new lines and carriage returns, will the software handle this gracefully?</t>
+  </si>
+  <si>
+    <t>({yes, no∗ , n/a})</t>
+  </si>
+  <si>
+    <t>Surface Usability</t>
+  </si>
+  <si>
+    <t>Is there a getting started tutorial?</t>
+  </si>
+  <si>
+    <t>Is there a user manual? ({yes, no})</t>
+  </si>
+  <si>
+    <t>Are expected user characteristics documented?</t>
+  </si>
+  <si>
+    <t>What is the user support model? FAQ? User forum? E-mail address to direct questions? Etc.</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>What is the current version number?</t>
+  </si>
+  <si>
+    <t>Is there any information on how code is reviewed, or how to contribute?</t>
+  </si>
+  <si>
+    <t>Are artifacts available? (List every type of file that is not a code file – for examples please look at the ‘Artifact Name’ column of https://gitlab.cas.mcmaster.ca/SEforSC/se4sc/-/blob/git-svn/GradStudents/Olu/ResearchProposal/Artifacts_MiningV3.xlsx)</t>
+  </si>
+  <si>
+    <t>({yes*, no, unclear}) *list via string</t>
   </si>
   <si>
     <t xml:space="preserve">What issue tracking tool is employed? </t>
   </si>
   <si>
-    <t xml:space="preserve">(set of {Trac, JIRA, Redmine, e-mail, discussion board, sourceforge, google code, git, BitBucket, none, unclear, other*}) * given via string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the percentage of identified issues that are closed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(percentage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of code is comments?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which version control system is in use?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">({svn, cvs, git, github, unclear, other*}) * given via string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reusability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many code files are there?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is API documented?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1 .. 10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Understandability (Based on 10 random source files)</t>
+    <t>(set of {Trac, JIRA, Redmine, e-mail, discussion board, sourceforge, google code, git, BitBucket, none, unclear, other*}) * given via string</t>
+  </si>
+  <si>
+    <t>What is the percentage of identified issues that are closed?</t>
+  </si>
+  <si>
+    <t>(percentage)</t>
+  </si>
+  <si>
+    <t>What percentage of code is comments?</t>
+  </si>
+  <si>
+    <t>Which version control system is in use?</t>
+  </si>
+  <si>
+    <t>({svn, cvs, git, github, unclear, other*}) * given via string</t>
+  </si>
+  <si>
+    <t>Reusability</t>
+  </si>
+  <si>
+    <t>How many code files are there?</t>
+  </si>
+  <si>
+    <t>Is API documented?</t>
+  </si>
+  <si>
+    <t>{1 .. 10}</t>
+  </si>
+  <si>
+    <t>Surface Understandability (Based on 10 random source files)</t>
   </si>
   <si>
     <t xml:space="preserve">Consistent indentation and formatting style? </t>
@@ -375,7 +380,7 @@
     <t xml:space="preserve">Explicit identification of a coding standard? </t>
   </si>
   <si>
-    <t xml:space="preserve">({yes∗, no, n/a})</t>
+    <t>({yes∗, no, n/a})</t>
   </si>
   <si>
     <t xml:space="preserve">Are the code identifiers consistent, distinctive, and meaningful? </t>
@@ -384,25 +389,25 @@
     <t xml:space="preserve">Are constants (other than 0 and 1) hard coded into the program? </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments are clear, indicate what is being done, not how?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the name/URL of any algorithms used mentioned?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters are in the same order for all functions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is code modularized?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visibility/Transparency</t>
+    <t>Comments are clear, indicate what is being done, not how?</t>
+  </si>
+  <si>
+    <t>Is the name/URL of any algorithms used mentioned?</t>
+  </si>
+  <si>
+    <t>Parameters are in the same order for all functions?</t>
+  </si>
+  <si>
+    <t>Is code modularized?</t>
+  </si>
+  <si>
+    <t>Visibility/Transparency</t>
   </si>
   <si>
     <t xml:space="preserve">Is the development process defined? If yes, what process is used. </t>
   </si>
   <si>
-    <t xml:space="preserve">({yes∗ , no, n/a})</t>
+    <t>({yes∗ , no, n/a})</t>
   </si>
   <si>
     <t xml:space="preserve">Are there any documents recording the development process and status? </t>
@@ -414,10 +419,7 @@
     <t xml:space="preserve">Are there release notes? </t>
   </si>
   <si>
-    <t xml:space="preserve">Raw Metrics (Measured via git_stats)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of text-based files.</t>
+    <t>Number of text-based files.</t>
   </si>
   <si>
     <t xml:space="preserve">Number of binary files. </t>
@@ -426,47 +428,65 @@
     <t xml:space="preserve">Number of total lines in text-based files. </t>
   </si>
   <si>
-    <t xml:space="preserve">Number of total lines added to text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of total lines deleted from text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of total commits.</t>
+    <t>Number of total lines added to text-based files.</t>
+  </si>
+  <si>
+    <t>Number of total lines deleted from text-based files.</t>
+  </si>
+  <si>
+    <t>Number of total commits.</t>
   </si>
   <si>
     <t xml:space="preserve">Numbers of commits by year in the last 5 years. (Count from as early as possible if the project is younger than 5 years.) </t>
   </si>
   <si>
-    <t xml:space="preserve">(list of numbers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers of commits by month in the last 12 months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Metrics (Measured via scc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of total lines in text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of code lines in text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of comment lines in text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of blank lines in text-based files.</t>
+    <t>(list of numbers)</t>
+  </si>
+  <si>
+    <t>Numbers of commits by month in the last 12 months.</t>
+  </si>
+  <si>
+    <t>Number of total lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of code lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of comment lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of blank lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via git_stats)</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via scc)</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via GitHub)</t>
+  </si>
+  <si>
+    <t>Number of stars.</t>
+  </si>
+  <si>
+    <t>Number of forks.</t>
+  </si>
+  <si>
+    <t>Number of people watching this repo.</t>
+  </si>
+  <si>
+    <t>Number of open pull requests.</t>
+  </si>
+  <si>
+    <t>Number of closed pull requests.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -474,22 +494,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -511,148 +516,423 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.74"/>
+    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +943,7 @@
       <c r="E1" s="3"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +952,7 @@
       </c>
       <c r="AMJ2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -688,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -696,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -704,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -712,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -720,7 +1000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -728,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -736,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -744,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -752,7 +1032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -760,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -768,7 +1048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1024" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -776,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -784,7 +1064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -793,7 +1073,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -801,7 +1081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1024" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -809,7 +1089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -817,20 +1097,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="75.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1024" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ22"/>
+    </row>
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -838,7 +1118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -846,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -854,7 +1134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -862,7 +1142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -870,7 +1150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -878,7 +1158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
@@ -886,7 +1166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -894,7 +1174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -902,7 +1182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -911,7 +1191,7 @@
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -919,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -927,7 +1207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>58</v>
       </c>
@@ -935,7 +1215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -943,7 +1223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -951,20 +1231,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="8"/>
     </row>
-    <row r="39" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="AMJ39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ39"/>
+    </row>
+    <row r="40" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>64</v>
       </c>
@@ -972,7 +1252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="73.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1024" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>66</v>
       </c>
@@ -980,7 +1260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
@@ -988,7 +1268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -996,7 +1276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -1004,7 +1284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -1012,7 +1292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>73</v>
       </c>
@@ -1020,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>74</v>
       </c>
@@ -1028,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1036,20 +1316,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="AMJ50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ50"/>
+    </row>
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -1057,7 +1337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -1065,7 +1345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -1073,7 +1353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>81</v>
       </c>
@@ -1081,7 +1361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>82</v>
       </c>
@@ -1089,7 +1369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -1097,20 +1377,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="AMJ58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ58"/>
+    </row>
+    <row r="59" spans="1:1024" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -1118,7 +1398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
@@ -1126,7 +1406,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1134,20 +1414,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1024" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B63" s="5"/>
-      <c r="AMJ63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ63"/>
+    </row>
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -1155,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -1163,7 +1443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -1171,7 +1451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>92</v>
       </c>
@@ -1179,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -1187,20 +1467,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B70" s="5"/>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ70"/>
+    </row>
+    <row r="71" spans="1:1024" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>94</v>
       </c>
@@ -1208,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>95</v>
       </c>
@@ -1216,7 +1496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1024" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
@@ -1224,7 +1504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1024" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
@@ -1232,7 +1512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
@@ -1240,7 +1520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>102</v>
       </c>
@@ -1248,7 +1528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>103</v>
       </c>
@@ -1256,7 +1536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
@@ -1264,19 +1544,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B80" s="5"/>
-      <c r="AMJ80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ80"/>
+    </row>
+    <row r="81" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>106</v>
       </c>
@@ -1286,7 +1566,7 @@
       <c r="C81" s="10"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>107</v>
       </c>
@@ -1294,7 +1574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>61</v>
       </c>
@@ -1302,20 +1582,20 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1024" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B85" s="5"/>
-      <c r="AMJ85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ85"/>
+    </row>
+    <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>110</v>
       </c>
@@ -1323,7 +1603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -1331,7 +1611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
@@ -1339,7 +1619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
@@ -1347,7 +1627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>115</v>
       </c>
@@ -1355,7 +1635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>116</v>
       </c>
@@ -1363,7 +1643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -1371,7 +1651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>118</v>
       </c>
@@ -1379,7 +1659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>61</v>
       </c>
@@ -1387,19 +1667,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="5"/>
-      <c r="AMJ96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ96"/>
+    </row>
+    <row r="97" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
@@ -1407,7 +1687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>122</v>
       </c>
@@ -1415,7 +1695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>123</v>
       </c>
@@ -1423,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>124</v>
       </c>
@@ -1431,7 +1711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>61</v>
       </c>
@@ -1439,135 +1719,181 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="AMJ105"/>
+    </row>
+    <row r="106" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="AMJ105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
+      <c r="B106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
+    <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
+    <row r="109" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+    <row r="111" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+    <row r="112" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="AMJ114"/>
+    </row>
+    <row r="115" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+    <row r="116" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
+      <c r="B116" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="AMJ114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="B117" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
+    <row r="118" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B118" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+    <row r="119" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B119" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" s="8" t="s">
+    <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="AMJ120"/>
+    </row>
+    <row r="121" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="8" t="s">
+    <row r="122" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="123" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Projs\AIMSS\StateOfPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C83F29-219E-4DF3-AAA4-F80512573640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772BEC9-B0AB-44B9-B670-6949DF927E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Metrics &amp; Description</t>
   </si>
@@ -195,9 +195,6 @@
     <t>({Windows, Linux, OS X, Android, other* }) *given via string</t>
   </si>
   <si>
-    <t>How many software packages need to be installed before or during installation?</t>
-  </si>
-  <si>
     <t>Are required package versions listed?</t>
   </si>
   <si>
@@ -228,13 +225,241 @@
     <t>What tools or techniques are used to build confidence of correctness?</t>
   </si>
   <si>
+    <t>If there is a getting started tutorial?</t>
+  </si>
+  <si>
+    <t>Are the tutorial instructions linear?</t>
+  </si>
+  <si>
+    <t>Does the getting started tutorial provide an expected output?</t>
+  </si>
+  <si>
+    <t>({yes, no*, n/a})</t>
+  </si>
+  <si>
+    <t>Does your tutorial output match the expected output?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are unit tests available? </t>
+  </si>
+  <si>
+    <t>Is there evidence of continuous integration? (for example mentioned in documentation, Jenkins, Travis CI, Bamboo, other)</t>
+  </si>
+  <si>
+    <t>({yes*, no, unclear})</t>
+  </si>
+  <si>
+    <t>Surface Reliability</t>
+  </si>
+  <si>
+    <t>Did the software “break” during installation?</t>
+  </si>
+  <si>
+    <t>If the software installation broke, was the installation instance recoverable?</t>
+  </si>
+  <si>
+    <t>Did the software “break” during the initial tutorial testing?</t>
+  </si>
+  <si>
+    <t>({yes*, no, n/a})</t>
+  </si>
+  <si>
+    <t>If the tutorial testing broke, was a descriptive error message displayed?</t>
+  </si>
+  <si>
+    <t>If the tutorial testing broke, was the tutorial testing instance recoverable?</t>
+  </si>
+  <si>
+    <t>Surface Robustness</t>
+  </si>
+  <si>
+    <t>Does the software handle unexpected/unanticipated input (like data of the wrong type, empty input, missing files or links) reasonably? (a reasonable response can include an appropriate error message.)</t>
+  </si>
+  <si>
+    <t>({yes, no∗ })</t>
+  </si>
+  <si>
+    <t>For any plain text input files, if all new lines are replaced with new lines and carriage returns, will the software handle this gracefully?</t>
+  </si>
+  <si>
+    <t>({yes, no∗ , n/a})</t>
+  </si>
+  <si>
+    <t>Surface Usability</t>
+  </si>
+  <si>
+    <t>Is there a getting started tutorial?</t>
+  </si>
+  <si>
+    <t>Is there a user manual? ({yes, no})</t>
+  </si>
+  <si>
+    <t>Are expected user characteristics documented?</t>
+  </si>
+  <si>
+    <t>What is the user support model? FAQ? User forum? E-mail address to direct questions? Etc.</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>What is the current version number?</t>
+  </si>
+  <si>
+    <t>Is there any information on how code is reviewed, or how to contribute?</t>
+  </si>
+  <si>
+    <t>Are artifacts available? (List every type of file that is not a code file – for examples please look at the ‘Artifact Name’ column of https://gitlab.cas.mcmaster.ca/SEforSC/se4sc/-/blob/git-svn/GradStudents/Olu/ResearchProposal/Artifacts_MiningV3.xlsx)</t>
+  </si>
+  <si>
+    <t>({yes*, no, unclear}) *list via string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What issue tracking tool is employed? </t>
+  </si>
+  <si>
+    <t>(set of {Trac, JIRA, Redmine, e-mail, discussion board, sourceforge, google code, git, BitBucket, none, unclear, other*}) * given via string</t>
+  </si>
+  <si>
+    <t>What is the percentage of identified issues that are closed?</t>
+  </si>
+  <si>
+    <t>(percentage)</t>
+  </si>
+  <si>
+    <t>What percentage of code is comments?</t>
+  </si>
+  <si>
+    <t>Which version control system is in use?</t>
+  </si>
+  <si>
+    <t>({svn, cvs, git, github, unclear, other*}) * given via string</t>
+  </si>
+  <si>
+    <t>Reusability</t>
+  </si>
+  <si>
+    <t>How many code files are there?</t>
+  </si>
+  <si>
+    <t>Is API documented?</t>
+  </si>
+  <si>
+    <t>{1 .. 10}</t>
+  </si>
+  <si>
+    <t>Surface Understandability (Based on 10 random source files)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistent indentation and formatting style? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicit identification of a coding standard? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the code identifiers consistent, distinctive, and meaningful? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are constants (other than 0 and 1) hard coded into the program? </t>
+  </si>
+  <si>
+    <t>Comments are clear, indicate what is being done, not how?</t>
+  </si>
+  <si>
+    <t>Is the name/URL of any algorithms used mentioned?</t>
+  </si>
+  <si>
+    <t>Parameters are in the same order for all functions?</t>
+  </si>
+  <si>
+    <t>Is code modularized?</t>
+  </si>
+  <si>
+    <t>Visibility/Transparency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the development process defined? If yes, what process is used. </t>
+  </si>
+  <si>
+    <t>({yes∗ , no, n/a})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any documents recording the development process and status? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the development environment documented? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there release notes? </t>
+  </si>
+  <si>
+    <t>Number of text-based files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of binary files. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of total lines in text-based files. </t>
+  </si>
+  <si>
+    <t>Number of total lines added to text-based files.</t>
+  </si>
+  <si>
+    <t>Number of total lines deleted from text-based files.</t>
+  </si>
+  <si>
+    <t>Number of total commits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers of commits by year in the last 5 years. (Count from as early as possible if the project is younger than 5 years.) </t>
+  </si>
+  <si>
+    <t>(list of numbers)</t>
+  </si>
+  <si>
+    <t>Numbers of commits by month in the last 12 months.</t>
+  </si>
+  <si>
+    <t>Number of total lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of code lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of comment lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Number of blank lines in text-based files.</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via git_stats)</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via scc)</t>
+  </si>
+  <si>
+    <t>Repo Metrics (Measured via GitHub)</t>
+  </si>
+  <si>
+    <t>Number of stars.</t>
+  </si>
+  <si>
+    <t>Number of forks.</t>
+  </si>
+  <si>
+    <t>Number of people watching this repo.</t>
+  </si>
+  <si>
+    <t>Number of open pull requests.</t>
+  </si>
+  <si>
+    <t>Number of closed pull requests.</t>
+  </si>
+  <si>
+    <t>How many extra software packages need to be installed before or during installation?</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>({</t>
     </r>
     <r>
@@ -248,245 +473,20 @@
     </r>
   </si>
   <si>
-    <t>If there is a getting started tutorial?</t>
-  </si>
-  <si>
-    <t>Are the tutorial instructions linear?</t>
-  </si>
-  <si>
-    <t>Does the getting started tutorial provide an expected output?</t>
-  </si>
-  <si>
-    <t>({yes, no*, n/a})</t>
-  </si>
-  <si>
-    <t>Does your tutorial output match the expected output?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are unit tests available? </t>
-  </si>
-  <si>
-    <t>Is there evidence of continuous integration? (for example mentioned in documentation, Jenkins, Travis CI, Bamboo, other)</t>
-  </si>
-  <si>
-    <t>({yes*, no, unclear})</t>
-  </si>
-  <si>
-    <t>Surface Reliability</t>
-  </si>
-  <si>
-    <t>Did the software “break” during installation?</t>
-  </si>
-  <si>
-    <t>If the software installation broke, was the installation instance recoverable?</t>
-  </si>
-  <si>
-    <t>Did the software “break” during the initial tutorial testing?</t>
-  </si>
-  <si>
-    <t>({yes*, no, n/a})</t>
-  </si>
-  <si>
-    <t>If the tutorial testing broke, was a descriptive error message displayed?</t>
-  </si>
-  <si>
-    <t>If the tutorial testing broke, was the tutorial testing instance recoverable?</t>
-  </si>
-  <si>
-    <t>Surface Robustness</t>
-  </si>
-  <si>
-    <t>Does the software handle unexpected/unanticipated input (like data of the wrong type, empty input, missing files or links) reasonably? (a reasonable response can include an appropriate error message.)</t>
-  </si>
-  <si>
-    <t>({yes, no∗ })</t>
-  </si>
-  <si>
-    <t>For any plain text input files, if all new lines are replaced with new lines and carriage returns, will the software handle this gracefully?</t>
-  </si>
-  <si>
-    <t>({yes, no∗ , n/a})</t>
-  </si>
-  <si>
-    <t>Surface Usability</t>
-  </si>
-  <si>
-    <t>Is there a getting started tutorial?</t>
-  </si>
-  <si>
-    <t>Is there a user manual? ({yes, no})</t>
-  </si>
-  <si>
-    <t>Are expected user characteristics documented?</t>
-  </si>
-  <si>
-    <t>What is the user support model? FAQ? User forum? E-mail address to direct questions? Etc.</t>
-  </si>
-  <si>
-    <t>Maintainability</t>
-  </si>
-  <si>
-    <t>What is the current version number?</t>
-  </si>
-  <si>
-    <t>Is there any information on how code is reviewed, or how to contribute?</t>
-  </si>
-  <si>
-    <t>Are artifacts available? (List every type of file that is not a code file – for examples please look at the ‘Artifact Name’ column of https://gitlab.cas.mcmaster.ca/SEforSC/se4sc/-/blob/git-svn/GradStudents/Olu/ResearchProposal/Artifacts_MiningV3.xlsx)</t>
-  </si>
-  <si>
-    <t>({yes*, no, unclear}) *list via string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What issue tracking tool is employed? </t>
-  </si>
-  <si>
-    <t>(set of {Trac, JIRA, Redmine, e-mail, discussion board, sourceforge, google code, git, BitBucket, none, unclear, other*}) * given via string</t>
-  </si>
-  <si>
-    <t>What is the percentage of identified issues that are closed?</t>
-  </si>
-  <si>
-    <t>(percentage)</t>
-  </si>
-  <si>
-    <t>What percentage of code is comments?</t>
-  </si>
-  <si>
-    <t>Which version control system is in use?</t>
-  </si>
-  <si>
-    <t>({svn, cvs, git, github, unclear, other*}) * given via string</t>
-  </si>
-  <si>
-    <t>Reusability</t>
-  </si>
-  <si>
-    <t>How many code files are there?</t>
-  </si>
-  <si>
-    <t>Is API documented?</t>
-  </si>
-  <si>
-    <t>{1 .. 10}</t>
-  </si>
-  <si>
-    <t>Surface Understandability (Based on 10 random source files)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent indentation and formatting style? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicit identification of a coding standard? </t>
-  </si>
-  <si>
-    <t>({yes∗, no, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the code identifiers consistent, distinctive, and meaningful? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are constants (other than 0 and 1) hard coded into the program? </t>
-  </si>
-  <si>
-    <t>Comments are clear, indicate what is being done, not how?</t>
-  </si>
-  <si>
-    <t>Is the name/URL of any algorithms used mentioned?</t>
-  </si>
-  <si>
-    <t>Parameters are in the same order for all functions?</t>
-  </si>
-  <si>
-    <t>Is code modularized?</t>
-  </si>
-  <si>
-    <t>Visibility/Transparency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the development process defined? If yes, what process is used. </t>
-  </si>
-  <si>
-    <t>({yes∗ , no, n/a})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there any documents recording the development process and status? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the development environment documented? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there release notes? </t>
-  </si>
-  <si>
-    <t>Number of text-based files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of binary files. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of total lines in text-based files. </t>
-  </si>
-  <si>
-    <t>Number of total lines added to text-based files.</t>
-  </si>
-  <si>
-    <t>Number of total lines deleted from text-based files.</t>
-  </si>
-  <si>
-    <t>Number of total commits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers of commits by year in the last 5 years. (Count from as early as possible if the project is younger than 5 years.) </t>
-  </si>
-  <si>
-    <t>(list of numbers)</t>
-  </si>
-  <si>
-    <t>Numbers of commits by month in the last 12 months.</t>
-  </si>
-  <si>
-    <t>Number of total lines in text-based files.</t>
-  </si>
-  <si>
-    <t>Number of code lines in text-based files.</t>
-  </si>
-  <si>
-    <t>Number of comment lines in text-based files.</t>
-  </si>
-  <si>
-    <t>Number of blank lines in text-based files.</t>
-  </si>
-  <si>
-    <t>Repo Metrics (Measured via git_stats)</t>
-  </si>
-  <si>
-    <t>Repo Metrics (Measured via scc)</t>
-  </si>
-  <si>
-    <t>Repo Metrics (Measured via GitHub)</t>
-  </si>
-  <si>
-    <t>Number of stars.</t>
-  </si>
-  <si>
-    <t>Number of forks.</t>
-  </si>
-  <si>
-    <t>Number of people watching this repo.</t>
-  </si>
-  <si>
-    <t>Number of open pull requests.</t>
-  </si>
-  <si>
-    <t>Number of closed pull requests.</t>
+    <t>({yes∗, no, unclear})</t>
+  </si>
+  <si>
+    <t>({yes, no∗ , unclear})</t>
+  </si>
+  <si>
+    <t>({number, n/a})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -503,6 +503,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -574,10 +580,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,14 +603,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,22 +928,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +954,7 @@
       <c r="E1" s="3"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -952,7 +963,7 @@
       </c>
       <c r="AMJ2" s="7"/>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -960,120 +971,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="66" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1081,36 +1092,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1024" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1118,776 +1128,774 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>58</v>
+    <row r="35" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="5"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="8" t="s">
+    </row>
+    <row r="41" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:1024" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="5"/>
       <c r="AMJ50"/>
     </row>
-    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="8" t="s">
+    </row>
+    <row r="54" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    <row r="55" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="B55" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" s="5"/>
       <c r="AMJ58"/>
     </row>
-    <row r="59" spans="1:1024" ht="66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1024" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1024" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1024" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5"/>
       <c r="AMJ63"/>
     </row>
-    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>92</v>
+    <row r="67" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" s="5"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" spans="1:1024" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:1024" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1024" ht="73.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1024" ht="73.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:1024" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="B77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="5"/>
       <c r="AMJ80"/>
     </row>
-    <row r="81" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>107</v>
+      <c r="C81" s="9"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:1024" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1024" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B85" s="5"/>
       <c r="AMJ85"/>
     </row>
-    <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B96" s="5"/>
       <c r="AMJ96"/>
     </row>
-    <row r="97" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B99" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="1:1024" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="8" t="s">
+      <c r="B100" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1024" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1024" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="105" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B105" s="5"/>
       <c r="AMJ105"/>
     </row>
-    <row r="106" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:1024" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1024" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B114" s="5"/>
       <c r="AMJ114"/>
     </row>
-    <row r="115" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B120" s="5"/>
       <c r="AMJ120"/>
     </row>
-    <row r="121" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>12</v>
+      <c r="B125" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
